--- a/biology/Zoologie/Carpophage_de_Pickering/Carpophage_de_Pickering.xlsx
+++ b/biology/Zoologie/Carpophage_de_Pickering/Carpophage_de_Pickering.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ducula pickeringii
 Le Carpophage de Pickering (Ducula pickeringii) est une espèce d'oiseaux appartenant à la famille  des  Columbidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 40 cm de longueur.
 La tête est rose grisâtre avec une petite bande blanche à la base du bec gris bleuâtre. Un cercle orbital blanc gris entoure les yeux rougeâtre foncé. Le cou, la poitrine et le dessous du corps sont gris rosâtre pâle, plus rose sur la poitrine et la gorge et plus gris sur la nuque. Le manteau, le dos, les ailes et le croupion sont gris verdâtre avec de légers reflets métalliques. La queue est vert noirâtre et les sous-caudales rose grisâtre avec une surfusion rousse. Les pattes sont pourpres.
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit sur les petites îles entre Bornéo et les Philippines.
 </t>
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente les forêts de plaines.
 </t>
@@ -607,7 +625,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit le plus souvent seul ou en couple. Il est parfois associé au Carpophage pauline ou au Carpophage blanc.
 </t>
@@ -638,7 +658,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cet oiseau est constitué de trois sous-espèces :
 Ducula pickeringii pickeringii (Cassin, 1854) ;
@@ -671,7 +693,9 @@
           <t>Population et conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les populations de cet oiseau déclinent à cause de la chasse et de la conversion de certaines forêts de basse altitude en palmeraies.
 </t>
